--- a/테이블명세서.xlsx
+++ b/테이블명세서.xlsx
@@ -4026,11 +4026,11 @@
   </sheetPr>
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="11.57"/>
@@ -4351,7 +4351,7 @@
       <c r="J12" s="3"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="93.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
@@ -5151,7 +5151,7 @@
       <c r="J41" s="3"/>
       <c r="V41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="258.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="270.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
         <v>92</v>
       </c>
@@ -5765,7 +5765,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="191.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="203.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
         <v>120</v>
       </c>
@@ -6327,7 +6327,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="180.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="194.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="12" t="s">
         <v>149</v>
       </c>
